--- a/24 小飞机课/翼型剖面数据.xlsx
+++ b/24 小飞机课/翼型剖面数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learningMaterials\24 小飞机课\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\NowORNever1\24 小飞机课\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E810F-6810-4E30-BA20-73C908D8FD64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BE28EB-F9E6-44E3-A69D-866D1B8F39FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{7BCA8225-B803-4C1A-957F-35DF81036B5E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015" xr2:uid="{7BCA8225-B803-4C1A-957F-35DF81036B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -146,13 +146,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,12 +199,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -280,7 +394,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -571,16 +685,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF44012-7CAD-47D6-AE33-5CD7C7A4EFB1}">
   <dimension ref="A12:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -601,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -624,7 +738,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -647,7 +761,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -670,7 +784,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,7 +805,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -714,7 +828,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -725,51 +839,51 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>0</v>
@@ -788,7 +902,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -809,7 +923,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -830,7 +944,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -851,7 +965,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,8 +986,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
